--- a/pred_ohlcv/54_21/2020-01-26 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-147.9872277000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-160.0310341500001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-168.2447341500001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-160.3247341500001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-157.1692341500001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-165.0092341500001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-165.0109341500001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-165.0109341500001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-196.0174341500001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-196.9015341500001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-248.2109341500001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-346.42573415</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-346.42573415</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-373.57933415</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-374.31163415</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-365.30253415</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-309.96253415</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-314.10463415</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-374.85943415</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-520.8830236699997</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-523.9251236699997</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-524.6863236699998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-521.9540236699997</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-521.6510234099998</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-525.7069234099997</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-525.4506234099997</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-525.6311234099998</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-527.9995234099997</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-472.3439234099994</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-491.7206234099995</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-491.3206234099995</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-491.5194234099995</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-477.3478234099995</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-477.0701866399995</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-486.6184663099995</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-486.5916663099995</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-486.6466663099995</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-486.7676663099995</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-499.0379173799995</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-498.9829173799995</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-506.8224173799995</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-546.0843173799994</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-540.8728173799994</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-547.9552173799995</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-548.8722173799995</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-563.9402173799995</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-2752.8507427</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2759.8796427</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2757.8696427</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2618.69959605</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-2617.48779605</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-2624.75031949</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-2624.96581949</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-2629.11531949</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-2629.11531949</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-2627.68581949</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-2594.87341949</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2579.89471949</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-2617.696095270001</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2657.572795270001</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2657.512795270001</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2658.120295270001</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2655.315695270001</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2654.675695270001</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2654.456395270001</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2654.977595270001</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-2656.670295270001</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2831.777095270001</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-2830.156195270001</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-2830.156195270001</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-2830.133195270001</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-2818.826295270001</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-2817.826295270001</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-2803.631695270001</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-2803.631695270001</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1917.236877580001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1807.802095360002</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1811.725495360002</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1811.151995360002</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1861.255795360002</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1877.870595360002</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1876.296495360002</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1886.461195360002</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-1906.704195360002</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-1909.720095360002</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-1878.887295360002</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-147.9872277000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-160.0310341500001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-168.2447341500001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-160.3247341500001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-157.1692341500001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-165.0092341500001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-165.0109341500001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-165.0109341500001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-196.0174341500001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-196.9015341500001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-248.2109341500001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-346.42573415</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-346.42573415</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-373.57933415</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-374.31163415</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-365.30253415</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-309.96253415</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-314.10463415</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-567.0836236699997</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-567.1390236699997</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-567.1390236699997</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-566.0480236699997</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-564.7692236699996</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-561.5122236699997</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-520.8830236699997</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-523.9251236699997</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-524.6863236699998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-524.7191236699997</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-524.3623236699997</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-520.3169236699997</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-521.9540236699997</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-521.6510234099998</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-525.7069234099997</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-525.4506234099997</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-525.6311234099998</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-527.9995234099997</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-558.9024234099996</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-575.2340234099996</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-575.2340234099996</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-513.1311234099995</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-466.1927234099995</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-465.9916234099995</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-467.6888234099995</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-475.1418234099995</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-475.1539234099994</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-475.1439234099994</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-472.3439234099994</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-491.7206234099995</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-491.3206234099995</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-491.5194234099995</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-491.1775234099995</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-477.3478234099995</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-477.0701866399995</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-486.6184663099995</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-486.5916663099995</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-486.6466663099995</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-486.7676663099995</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-499.0379173799995</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-498.9829173799995</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-506.8224173799995</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-546.0843173799994</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-540.8728173799994</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-547.9552173799995</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-548.8722173799995</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-563.9402173799995</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-554.1674943199994</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-555.1550943199994</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-579.6307943199994</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-2752.8507427</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-2752.8507427</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2759.8796427</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2757.8696427</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2618.69959605</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-2617.48779605</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-2626.29171949</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-2624.96581949</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-2629.11531949</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-2629.11531949</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-2627.68581949</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-2594.87341949</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2579.89471949</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-2616.97301949</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-2617.11331949</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2285.02593537</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2614.803495270001</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2657.572795270001</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-2817.826295270001</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-2817.826295270001</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-2822.052895270001</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-2803.631695270001</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-2803.631695270001</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-2732.104295270001</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-2639.885347760001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1917.236877580001</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1807.802095360002</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1811.725495360002</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1811.151995360002</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1861.255795360002</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1877.870595360002</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1876.296495360002</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1886.461195360002</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-1906.704195360002</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-1909.720095360002</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-1878.887295360002</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
